--- a/Histogram.xlsx
+++ b/Histogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNCW\CSC340\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE46E99-D7E3-494D-90E6-28C23693EF88}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0296C95C-6EB2-47C8-93DB-7515F843CAD7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="4" xr2:uid="{A0CE32D8-0D13-4148-8A5D-63EE73A86F1A}"/>
   </bookViews>
@@ -413,899 +413,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Exhaustive!$A$1:$A$102</c:f>
-              <c:strCache>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.86-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1-1.14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.14-1.28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.28-1.42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.42-1.56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.56-1.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7-1.84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.84-1.98</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.98-2.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.12-2.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.26-2.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4-2.54</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.54-2.68</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.68-2.82</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.82-2.96</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.96-3.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.1-3.24</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.24-3.38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.38-3.52</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.52-3.66</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.66-3.8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.8-3.93</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.93-4.07</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.07-4.21</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.21-4.35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.35-4.49</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.49-4.63</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.63-4.77</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.77-4.91</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.91-5.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.05-5.19</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.19-5.33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.33-5.47</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.47-5.61</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.61-5.75</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.75-5.89</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.89-6.03</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.03-6.17</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.17-6.31</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.31-6.45</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.45-6.59</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.59-6.73</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.73-6.87</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.87-7.01</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.01-7.15</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.15-7.29</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.29-7.43</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.43-7.57</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.57-7.71</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.71-7.85</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.85-7.99</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7.99-8.13</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8.13-8.26</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.26-8.4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.4-8.54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.54-8.68</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.68-8.82</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.82-8.96</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.96-9.1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9.1-9.24</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9.24-9.38</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9.38-9.52</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9.52-9.66</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9.66-9.8</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>9.8-9.94</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>9.94-10.08</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>10.08-10.22</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10.22-10.36</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10.36-10.5</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>10.5-10.64</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>10.64-10.78</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10.78-10.92</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>10.92-11.06</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>11.06-11.2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>11.2-11.34</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>11.34-11.48</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>11.48-11.62</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>11.62-11.76</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>11.76-11.9</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>11.9-12.04</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>12.04-12.18</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>12.18-12.32</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>12.32-12.46</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>12.46-12.6</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>12.6-12.73</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>12.73-12.87</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>12.87-13.01</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>13.01-13.15</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>13.15-13.29</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>13.29-13.43</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>13.43-13.57</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>13.57-13.71</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>13.71-13.85</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>13.85-13.99</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>13.99-14.13</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>14.13-14.27</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>14.27-14.41</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>14.41-14.55</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>14.55-14.69</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>14.69-14.83</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Exhaustive!$B$1:$B$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4788</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15484</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>46508</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>124712</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>302008</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>694204</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1533308</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3175340</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6295828</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11843328</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21116900</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>36237460</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>60321464</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>97652800</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>152812100</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>232421392</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>343471660</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>493031392</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>688448880</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>935936568</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1241249380</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1604713404</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2027931332</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2501458064</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3012795044</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3540309640</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4062694608</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4550659036</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4981000248</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5321220996</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5548590796</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5642110320</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5596516380</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5413094764</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5093707976</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4663242248</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4146969652</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3582500516</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2995867616</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2423497720</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1891306676</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1422804852</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1026758572</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>708282288</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>464588152</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>289335536</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>168921284</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>92089928</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>46089120</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>20836452</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>8131788</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2737616</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>724584</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>66528</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>952</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>5642110320</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-560E-495C-AACE-7B735A04C132}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="586834632"/>
-        <c:axId val="586835944"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="586834632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="586835944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="586835944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="586834632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3065,154 +2172,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3.5518101588406089E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4723203769140165E-5</c:v>
+                  <c:v>0.14497710139053532</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4169611307420493E-5</c:v>
+                  <c:v>0.72293549353213671</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.2391048292108361E-4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2143698468786813E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9876325088339221E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.888103651354535E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1675500588928151E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3130153121319198E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.5479976442873972E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.0656654888103645E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1130889281507656</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.17323321554770318</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.25325382803297997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.34770318021201413</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.45488810365135451</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.57433745583038864</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.66372202591283869</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.77522084805653713</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.85304770318021206</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.93526207302709075</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.96488515901060068</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.9783274440518257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.96286808009422853</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.89933745583038871</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.83414310954063609</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.76338339222614837</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.65744994110718491</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.54634864546525319</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.4511336866902238</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.35886336866902235</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.27501472320376913</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.21008539458186101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1538133097762073</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.11542991755005889</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.0889281507656063E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.7449941107184925E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.8854534746760892E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.6516489988221436E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.7623674911660777E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.1086572438162544E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.8757361601884566E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.4169611307420496E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.5176678445229684E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6784452296819787E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.2143698468786813E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.8586572438162547E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.2084805653710247E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.0306242638398115E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0</c:v>
@@ -3715,7 +2822,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>4.1932699336375369E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -3724,73 +2831,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1.2102646486592124E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.235602094240838E-3</c:v>
+                  <c:v>0.13989911784919132</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0942408376963352E-2</c:v>
+                  <c:v>0.22276960060378276</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.2827225130890049E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.712041884816754E-2</c:v>
+                  <c:v>0.53266335950511134</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.20942408376963351</c:v>
+                  <c:v>0.3000609351833804</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.33507853403141363</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.80628272251308897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.96335078534031415</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.83769633507853403</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.43979057591623039</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.26701570680628273</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.3769633507853408E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.3769633507853408E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.6178010471204188E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5706806282722512E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5706806282722512E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.235602094240838E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.235602094240838E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.235602094240838E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -4278,46 +3385,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -4355,509 +3422,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="211">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5349,47 +3913,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029D93D9-32C4-47E5-9A81-41F7F12D749F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>327211</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -5727,7 +4250,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C100"/>
+      <selection sqref="A1:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6945,7 +5468,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6953,7 +5475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4193ABA6-1091-4846-906A-78573430AF46}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C100"/>
     </sheetView>
   </sheetViews>
@@ -8416,11 +6938,11 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>23766</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5518101588406089E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8428,11 +6950,11 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>970076</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>1.4723203769140165E-5</v>
+        <v>0.14497710139053532</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -8440,11 +6962,11 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4837332</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>4.4169611307420493E-5</v>
+        <v>0.72293549353213671</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -8452,11 +6974,11 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>6691236</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3.2391048292108361E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -8464,11 +6986,11 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>7.2143698468786813E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -8476,11 +6998,11 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>1.9876325088339221E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -8488,11 +7010,11 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>4.888103651354535E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -8500,11 +7022,11 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>793</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>1.1675500588928151E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -8512,11 +7034,11 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1571</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>2.3130153121319198E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -8524,11 +7046,11 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3089</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>4.5479976442873972E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -8536,11 +7058,11 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>4799</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>7.0656654888103645E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -8548,11 +7070,11 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>7681</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0.1130889281507656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -8560,11 +7082,11 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>11766</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.17323321554770318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -8572,11 +7094,11 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>17201</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.25325382803297997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -8584,11 +7106,11 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>23616</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0.34770318021201413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -8596,11 +7118,11 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>30896</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.45488810365135451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -8608,11 +7130,11 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>39009</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>0.57433745583038864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -8620,11 +7142,11 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>45080</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0.66372202591283869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -8632,11 +7154,11 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>52653</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0.77522084805653713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -8644,11 +7166,11 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>57939</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0.85304770318021206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -8656,11 +7178,11 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>63523</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0.93526207302709075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -8668,11 +7190,11 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>65535</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0.96488515901060068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -8680,11 +7202,11 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>67920</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -8692,11 +7214,11 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>66448</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>0.9783274440518257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -8704,11 +7226,11 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>65398</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>0.96286808009422853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -8716,11 +7238,11 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>61083</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0.89933745583038871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -8728,11 +7250,11 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>56655</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.83414310954063609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -8740,11 +7262,11 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>51849</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>0.76338339222614837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -8752,11 +7274,11 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>44654</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.65744994110718491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -8764,11 +7286,11 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>37108</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>0.54634864546525319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -8776,11 +7298,11 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>30641</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>0.4511336866902238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -8788,11 +7310,11 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>24374</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>0.35886336866902235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -8800,11 +7322,11 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>18679</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.27501472320376913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -8812,11 +7334,11 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>14269</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>0.21008539458186101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -8824,11 +7346,11 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>10447</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>0.1538133097762073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -8836,11 +7358,11 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>7840</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>0.11542991755005889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -8848,11 +7370,11 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>5494</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>8.0889281507656063E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -8860,11 +7382,11 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>3902</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>5.7449941107184925E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -8872,11 +7394,11 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>2639</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>3.8854534746760892E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -8884,11 +7406,11 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>1801</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>2.6516489988221436E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -8896,11 +7418,11 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1197</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>1.7623674911660777E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -8908,11 +7430,11 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>753</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>1.1086572438162544E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -8920,11 +7442,11 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>467</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>6.8757361601884566E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -8932,11 +7454,11 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>4.4169611307420496E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -8944,11 +7466,11 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>2.5176678445229684E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -8956,11 +7478,11 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>1.6784452296819787E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -8968,11 +7490,11 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:C100" si="1">B66/$B$101</f>
-        <v>7.2143698468786813E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -8980,11 +7502,11 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
-        <v>4.8586572438162547E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -8992,11 +7514,11 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>2.2084805653710247E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -9004,11 +7526,11 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>1.0306242638398115E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -9386,7 +7908,7 @@
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B101">
         <f>MAX(B1:B100)</f>
-        <v>67920</v>
+        <v>6691236</v>
       </c>
     </row>
   </sheetData>
@@ -9640,11 +8162,11 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>245464</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1932699336375369E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -9676,11 +8198,11 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>70846</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2102646486592124E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -9688,11 +8210,11 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>818936</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>5.235602094240838E-3</v>
+        <v>0.13989911784919132</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -9700,11 +8222,11 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>1304040</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>2.0942408376963352E-2</v>
+        <v>0.22276960060378276</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -9712,11 +8234,11 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>5853761</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>6.2827225130890049E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -9724,11 +8246,11 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>3118084</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>4.712041884816754E-2</v>
+        <v>0.53266335950511134</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -9736,11 +8258,11 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>1756485</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.20942408376963351</v>
+        <v>0.3000609351833804</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -9748,11 +8270,11 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.33507853403141363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -9760,11 +8282,11 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.80628272251308897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -9772,11 +8294,11 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0.96335078534031415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -9784,11 +8306,11 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -9796,11 +8318,11 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.83769633507853403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -9808,11 +8330,11 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0.43979057591623039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -9820,11 +8342,11 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.26701570680628273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -9832,11 +8354,11 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>8.3769633507853408E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -9844,11 +8366,11 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>8.3769633507853408E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -9856,11 +8378,11 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>2.6178010471204188E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -9868,11 +8390,11 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>1.5706806282722512E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -9880,11 +8402,11 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>1.5706806282722512E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -9892,11 +8414,11 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>5.235602094240838E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -9916,11 +8438,11 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>5.235602094240838E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -9940,11 +8462,11 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>5.235602094240838E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -10610,7 +9132,7 @@
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B101">
         <f>MAX(B1:B100)</f>
-        <v>191</v>
+        <v>5853761</v>
       </c>
     </row>
   </sheetData>
@@ -10623,7 +9145,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10663,9 +9185,11 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <f ca="1">C2/$B$101</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f ca="1">D2/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -10674,16 +9198,18 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:E66" ca="1" si="0">A3/$B$101</f>
+        <f t="shared" ref="B3:B66" ca="1" si="0">A3/$B$101</f>
         <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:E66" ca="1" si="1">C3/$B$101</f>
         <v>0</v>
       </c>
       <c r="E3">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10699,9 +9225,11 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E4">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10717,9 +9245,11 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E5">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10735,9 +9265,11 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E6">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10753,9 +9285,11 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E7">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10771,9 +9305,11 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E8">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10789,9 +9325,11 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E9">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10807,9 +9345,11 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E10">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10825,9 +9365,11 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E11">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10843,9 +9385,11 @@
         <v>0</v>
       </c>
       <c r="D12">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E12">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10861,9 +9405,11 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E13">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10879,9 +9425,11 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E14">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10897,9 +9445,11 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E15">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10915,9 +9465,11 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E16">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10933,9 +9485,11 @@
         <v>0</v>
       </c>
       <c r="D17">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E17">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10951,9 +9505,11 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E18">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10969,9 +9525,11 @@
         <v>0</v>
       </c>
       <c r="D19">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E19">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10987,9 +9545,11 @@
         <v>0</v>
       </c>
       <c r="D20">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E20">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11005,10 +9565,12 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.5518101588406089E-3</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.1932699336375369E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -11023,9 +9585,11 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.4723203769140165E-5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14497710139053532</v>
       </c>
       <c r="E22">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11041,9 +9605,11 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.4169611307420493E-5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72293549353213671</v>
       </c>
       <c r="E23">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11059,10 +9625,12 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.2391048292108361E-4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2102646486592124E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -11077,10 +9645,12 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.2143698468786813E-4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>5.235602094240838E-3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13989911784919132</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -11095,10 +9665,12 @@
         <v>4.6180844185831714E-5</v>
       </c>
       <c r="D26">
-        <v>1.9876325088339221E-3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>2.0942408376963352E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22276960060378276</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -11113,10 +9685,12 @@
         <v>3.0787229457221143E-5</v>
       </c>
       <c r="D27">
-        <v>4.888103651354535E-3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>6.2827225130890049E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -11131,10 +9705,12 @@
         <v>7.6968073643052864E-5</v>
       </c>
       <c r="D28">
-        <v>1.1675500588928151E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>4.712041884816754E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53266335950511134</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -11149,10 +9725,12 @@
         <v>1.5393614728610573E-4</v>
       </c>
       <c r="D29">
-        <v>2.3130153121319198E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.20942408376963351</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3000609351833804</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -11167,10 +9745,12 @@
         <v>2.7708506511499033E-4</v>
       </c>
       <c r="D30">
-        <v>4.5479976442873972E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.33507853403141363</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -11185,10 +9765,12 @@
         <v>4.4641482712970659E-4</v>
       </c>
       <c r="D31">
-        <v>7.0656654888103645E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.80628272251308897</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -11203,10 +9785,12 @@
         <v>1.1545211046457928E-3</v>
       </c>
       <c r="D32">
-        <v>0.1130889281507656</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.96335078534031415</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -11221,10 +9805,12 @@
         <v>2.2936485945629754E-3</v>
       </c>
       <c r="D33">
-        <v>0.17323321554770318</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -11239,10 +9825,12 @@
         <v>3.7252547643237587E-3</v>
       </c>
       <c r="D34">
-        <v>0.25325382803297997</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.83769633507853403</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -11257,10 +9845,12 @@
         <v>6.6038607185739352E-3</v>
       </c>
       <c r="D35">
-        <v>0.34770318021201413</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.43979057591623039</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -11275,10 +9865,12 @@
         <v>1.0529232474369632E-2</v>
       </c>
       <c r="D36">
-        <v>0.45488810365135451</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0.26701570680628273</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -11293,10 +9885,12 @@
         <v>1.7287029340229673E-2</v>
       </c>
       <c r="D37">
-        <v>0.57433745583038864</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>8.3769633507853408E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -11311,10 +9905,12 @@
         <v>2.7600751208398756E-2</v>
       </c>
       <c r="D38">
-        <v>0.66372202591283869</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>8.3769633507853408E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -11329,10 +9925,12 @@
         <v>4.0993196022289957E-2</v>
       </c>
       <c r="D39">
-        <v>0.77522084805653713</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>2.6178010471204188E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -11347,10 +9945,12 @@
         <v>6.0604661186539822E-2</v>
       </c>
       <c r="D40">
-        <v>0.85304770318021206</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1.5706806282722512E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -11365,10 +9965,12 @@
         <v>8.5465348973245897E-2</v>
       </c>
       <c r="D41">
-        <v>0.93526207302709075</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1.5706806282722512E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -11383,10 +9985,12 @@
         <v>0.12251777962501155</v>
       </c>
       <c r="D42">
-        <v>0.96488515901060068</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>5.235602094240838E-3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -11401,9 +10005,11 @@
         <v>0.16561990086512116</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E43">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11419,10 +10025,12 @@
         <v>0.21992857362765925</v>
       </c>
       <c r="D44">
-        <v>0.9783274440518257</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>5.235602094240838E-3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -11437,9 +10045,11 @@
         <v>0.28341184076844927</v>
       </c>
       <c r="D45">
-        <v>0.96286808009422853</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E45">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11455,10 +10065,12 @@
         <v>0.36074936116498874</v>
       </c>
       <c r="D46">
-        <v>0.89933745583038871</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>5.235602094240838E-3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -11473,9 +10085,11 @@
         <v>0.43936455158400295</v>
       </c>
       <c r="D47">
-        <v>0.83414310954063609</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E47">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11491,9 +10105,11 @@
         <v>0.5304331763184631</v>
       </c>
       <c r="D48">
-        <v>0.76338339222614837</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E48">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11509,9 +10125,11 @@
         <v>0.62293340722268398</v>
       </c>
       <c r="D49">
-        <v>0.65744994110718491</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E49">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11527,9 +10145,11 @@
         <v>0.71455620208737414</v>
       </c>
       <c r="D50">
-        <v>0.54634864546525319</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E50">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11545,9 +10165,11 @@
         <v>0.80079123179705058</v>
       </c>
       <c r="D51">
-        <v>0.4511336866902238</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E51">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11563,9 +10185,11 @@
         <v>0.8768510821711154</v>
       </c>
       <c r="D52">
-        <v>0.35886336866902235</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E52">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11581,9 +10205,11 @@
         <v>0.93925679628090264</v>
       </c>
       <c r="D53">
-        <v>0.27501472320376913</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E53">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11599,9 +10225,11 @@
         <v>0.98137372617838126</v>
       </c>
       <c r="D54">
-        <v>0.21008539458186101</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E54">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11617,9 +10245,11 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>0.1538133097762073</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E55">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11635,9 +10265,11 @@
         <v>0.99010190572950341</v>
       </c>
       <c r="D56">
-        <v>0.11542991755005889</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E56">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11653,9 +10285,11 @@
         <v>0.95796003817616449</v>
       </c>
       <c r="D57">
-        <v>8.0889281507656063E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E57">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11671,9 +10305,11 @@
         <v>0.90163480188417844</v>
       </c>
       <c r="D58">
-        <v>5.7449941107184925E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E58">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11689,9 +10325,11 @@
         <v>0.82177272867214679</v>
       </c>
       <c r="D59">
-        <v>3.8854534746760892E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E59">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11707,9 +10345,11 @@
         <v>0.73193559311597545</v>
       </c>
       <c r="D60">
-        <v>2.6516489988221436E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E60">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11725,9 +10365,11 @@
         <v>0.62953726794125797</v>
       </c>
       <c r="D61">
-        <v>1.7623674911660777E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E61">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11743,9 +10385,11 @@
         <v>0.53137218681690834</v>
       </c>
       <c r="D62">
-        <v>1.1086572438162544E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E62">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11761,9 +10405,11 @@
         <v>0.4314522336134971</v>
       </c>
       <c r="D63">
-        <v>6.8757361601884566E-3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E63">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11779,9 +10425,11 @@
         <v>0.33341030140697636</v>
       </c>
       <c r="D64">
-        <v>4.4169611307420496E-3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E64">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11797,9 +10445,11 @@
         <v>0.25213201563991255</v>
       </c>
       <c r="D65">
-        <v>2.5176678445229684E-3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E65">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11815,9 +10465,11 @@
         <v>0.18044395184877313</v>
       </c>
       <c r="D66">
-        <v>1.6784452296819787E-3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E66">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11826,16 +10478,18 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:C101" ca="1" si="1">A67/$B$101</f>
+        <f t="shared" ref="B67:B101" ca="1" si="2">A67/$B$101</f>
         <v>0.12553499450184449</v>
       </c>
       <c r="C67">
         <v>0.12615067270096364</v>
       </c>
       <c r="D67">
-        <v>7.2143698468786813E-4</v>
+        <f t="shared" ref="D67:E101" ca="1" si="3">C67/$B$101</f>
+        <v>0</v>
       </c>
       <c r="E67">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11844,16 +10498,18 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>8.2342975526930137E-2</v>
       </c>
       <c r="C68">
         <v>7.949262645854499E-2</v>
       </c>
       <c r="D68">
-        <v>4.8586572438162547E-4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="E68">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11862,16 +10518,18 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5.1281438963426719E-2</v>
       </c>
       <c r="C69">
         <v>5.2369077306733167E-2</v>
       </c>
       <c r="D69">
-        <v>2.2084805653710247E-4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="E69">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11880,16 +10538,18 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.9939379845376722E-2</v>
       </c>
       <c r="C70">
         <v>2.9016963763430929E-2</v>
       </c>
       <c r="D70">
-        <v>1.0306242638398115E-4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="E70">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11898,16 +10558,18 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1.6321894251794779E-2</v>
       </c>
       <c r="C71">
         <v>1.5701487023182782E-2</v>
       </c>
       <c r="D71">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E71">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11916,16 +10578,18 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>8.1687732755994745E-3</v>
       </c>
       <c r="C72">
         <v>8.4357008712785935E-3</v>
       </c>
       <c r="D72">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E72">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11934,16 +10598,18 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3.693024563192164E-3</v>
       </c>
       <c r="C73">
         <v>3.6636803054093162E-3</v>
       </c>
       <c r="D73">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E73">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11952,16 +10618,18 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1.441267103759857E-3</v>
       </c>
       <c r="C74">
         <v>1.2622764077460668E-3</v>
       </c>
       <c r="D74">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E74">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11970,16 +10638,18 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4.8521135616504568E-4</v>
       </c>
       <c r="C75">
         <v>4.9259567131553828E-4</v>
       </c>
       <c r="D75">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E75">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11988,16 +10658,18 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1.2842428788241065E-4</v>
       </c>
       <c r="C76">
         <v>2.0011699147193745E-4</v>
       </c>
       <c r="D76">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E76">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12006,16 +10678,18 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1.1791332715380155E-5</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E77">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12024,16 +10698,18 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1.6873119205510324E-7</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E78">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12042,16 +10718,18 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E79">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12060,16 +10738,18 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E80">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12078,16 +10758,18 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E81">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12096,16 +10778,18 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E82">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12114,16 +10798,18 @@
         <v>1</v>
       </c>
       <c r="B83">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E83">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12132,16 +10818,18 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E84">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12150,16 +10838,18 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E85">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12168,16 +10858,18 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E86">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12186,16 +10878,18 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E87">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12204,16 +10898,18 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E88">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12222,16 +10918,18 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E89">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12240,16 +10938,18 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E90">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12258,16 +10958,18 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E91">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12276,16 +10978,18 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E92">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12294,16 +10998,18 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E93">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12312,16 +11018,18 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E94">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12330,16 +11038,18 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E95">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12348,16 +11058,18 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E96">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12366,16 +11078,18 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E97">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12384,16 +11098,18 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E98">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12402,16 +11118,18 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E99">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12420,16 +11138,18 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E100">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12438,16 +11158,18 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E101">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/Histogram.xlsx
+++ b/Histogram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNCW\CSC340\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0296C95C-6EB2-47C8-93DB-7515F843CAD7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CAFD8C-D8B7-4F40-AD75-423571D90C6A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="4" xr2:uid="{A0CE32D8-0D13-4148-8A5D-63EE73A86F1A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" firstSheet="1" activeTab="1" xr2:uid="{A0CE32D8-0D13-4148-8A5D-63EE73A86F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Exhaustive" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Genetic" sheetId="4" r:id="rId3"/>
     <sheet name="SA" sheetId="5" r:id="rId4"/>
     <sheet name="ALL" sheetId="3" r:id="rId5"/>
+    <sheet name="Draft" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="111">
   <si>
     <t>4.21-4.35</t>
   </si>
@@ -345,6 +346,24 @@
   <si>
     <t>Simulated Annealing</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Shortest distance</t>
+  </si>
+  <si>
+    <t>Z-score</t>
+  </si>
+  <si>
+    <t>Max:</t>
+  </si>
+  <si>
+    <t>Percentile</t>
+  </si>
 </sst>
 </file>
 
@@ -359,12 +378,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -379,8 +410,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2172,22 +2208,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.5518101588406089E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14497710139053532</c:v>
+                  <c:v>0.10996563573883161</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.72293549353213671</c:v>
+                  <c:v>0.5403780068728522</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1.0309278350515464E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>3.4364261168384879E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -2822,7 +2858,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.1932699336375369E-2</c:v>
+                  <c:v>0.11929931049533851</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -2831,22 +2867,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2102646486592124E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.13989911784919132</c:v>
+                  <c:v>0.16583964595498688</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.22276960060378276</c:v>
+                  <c:v>0.33913239114405308</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.53266335950511134</c:v>
+                  <c:v>0.1912790578720471</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3000609351833804</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -4247,10 +4283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AEF976-4DC3-4BCD-BFA6-FBC85566A9C9}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B100"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4258,9 +4294,11 @@
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4271,8 +4309,14 @@
         <f>B1/$B$101</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1">
+        <v>8.2968763188398995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4283,8 +4327,14 @@
         <f t="shared" ref="C2:C65" si="0">B2/$B$101</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2">
+        <v>0.84445993728405699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4295,8 +4345,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.6894071223416698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4307,8 +4363,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="2">
+        <f>(F3-F1)/F2</f>
+        <v>-5.4561134200359138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4320,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4332,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4344,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4356,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4368,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4380,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4392,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4404,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -4416,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4428,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -4440,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -5468,23 +5531,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4193ABA6-1091-4846-906A-78573430AF46}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C100"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5492,11 +5557,17 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <f>B1/$B$101</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C1:C32" si="0">B1/$B$101</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1">
+        <v>8.2972542266240605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5504,11 +5575,17 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C65" si="0">B2/$B$101</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2">
+        <v>0.84440878884377801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5519,8 +5596,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.28764330258395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5531,8 +5614,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="2">
+        <f>(F3-F1)/F2</f>
+        <v>-4.7484239588864803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5544,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5556,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5567,8 +5657,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7">
+        <f>(25/100)*100</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5580,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5592,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5604,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5616,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5628,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5640,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -5652,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -5664,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -5876,7 +5973,7 @@
         <v>242</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C33:C64" si="1">B33/$B$101</f>
         <v>3.7252547643237587E-3</v>
       </c>
     </row>
@@ -5888,7 +5985,7 @@
         <v>429</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6038607185739352E-3</v>
       </c>
     </row>
@@ -5900,7 +5997,7 @@
         <v>684</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0529232474369632E-2</v>
       </c>
     </row>
@@ -5912,7 +6009,7 @@
         <v>1123</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7287029340229673E-2</v>
       </c>
     </row>
@@ -5924,7 +6021,7 @@
         <v>1793</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7600751208398756E-2</v>
       </c>
     </row>
@@ -5936,7 +6033,7 @@
         <v>2663</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0993196022289957E-2</v>
       </c>
     </row>
@@ -5948,7 +6045,7 @@
         <v>3937</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0604661186539822E-2</v>
       </c>
     </row>
@@ -5960,7 +6057,7 @@
         <v>5552</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5465348973245897E-2</v>
       </c>
     </row>
@@ -5972,7 +6069,7 @@
         <v>7959</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12251777962501155</v>
       </c>
     </row>
@@ -5984,7 +6081,7 @@
         <v>10759</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16561990086512116</v>
       </c>
     </row>
@@ -5996,7 +6093,7 @@
         <v>14287</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21992857362765925</v>
       </c>
     </row>
@@ -6008,7 +6105,7 @@
         <v>18411</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28341184076844927</v>
       </c>
     </row>
@@ -6020,7 +6117,7 @@
         <v>23435</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36074936116498874</v>
       </c>
     </row>
@@ -6032,7 +6129,7 @@
         <v>28542</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43936455158400295</v>
       </c>
     </row>
@@ -6044,7 +6141,7 @@
         <v>34458</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5304331763184631</v>
       </c>
     </row>
@@ -6056,7 +6153,7 @@
         <v>40467</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62293340722268398</v>
       </c>
     </row>
@@ -6068,7 +6165,7 @@
         <v>46419</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71455620208737414</v>
       </c>
     </row>
@@ -6080,7 +6177,7 @@
         <v>52021</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80079123179705058</v>
       </c>
     </row>
@@ -6092,7 +6189,7 @@
         <v>56962</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8768510821711154</v>
       </c>
     </row>
@@ -6104,7 +6201,7 @@
         <v>61016</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93925679628090264</v>
       </c>
     </row>
@@ -6116,7 +6213,7 @@
         <v>63752</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98137372617838126</v>
       </c>
     </row>
@@ -6128,7 +6225,7 @@
         <v>64962</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6140,7 +6237,7 @@
         <v>64319</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99010190572950341</v>
       </c>
     </row>
@@ -6152,7 +6249,7 @@
         <v>62231</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95796003817616449</v>
       </c>
     </row>
@@ -6164,7 +6261,7 @@
         <v>58572</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90163480188417844</v>
       </c>
     </row>
@@ -6176,7 +6273,7 @@
         <v>53384</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.82177272867214679</v>
       </c>
     </row>
@@ -6188,7 +6285,7 @@
         <v>47548</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73193559311597545</v>
       </c>
     </row>
@@ -6200,7 +6297,7 @@
         <v>40896</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62953726794125797</v>
       </c>
     </row>
@@ -6212,7 +6309,7 @@
         <v>34519</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.53137218681690834</v>
       </c>
     </row>
@@ -6224,7 +6321,7 @@
         <v>28028</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4314522336134971</v>
       </c>
     </row>
@@ -6236,7 +6333,7 @@
         <v>21659</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33341030140697636</v>
       </c>
     </row>
@@ -6248,7 +6345,7 @@
         <v>16379</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25213201563991255</v>
       </c>
     </row>
@@ -6260,7 +6357,7 @@
         <v>11722</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C65:C96" si="2">B65/$B$101</f>
         <v>0.18044395184877313</v>
       </c>
     </row>
@@ -6272,7 +6369,7 @@
         <v>8195</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C100" si="1">B66/$B$101</f>
+        <f t="shared" si="2"/>
         <v>0.12615067270096364</v>
       </c>
     </row>
@@ -6284,7 +6381,7 @@
         <v>5164</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.949262645854499E-2</v>
       </c>
     </row>
@@ -6296,7 +6393,7 @@
         <v>3402</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2369077306733167E-2</v>
       </c>
     </row>
@@ -6308,7 +6405,7 @@
         <v>1885</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9016963763430929E-2</v>
       </c>
     </row>
@@ -6320,7 +6417,7 @@
         <v>1020</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5701487023182782E-2</v>
       </c>
     </row>
@@ -6332,7 +6429,7 @@
         <v>548</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4357008712785935E-3</v>
       </c>
     </row>
@@ -6344,7 +6441,7 @@
         <v>238</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6636803054093162E-3</v>
       </c>
     </row>
@@ -6356,7 +6453,7 @@
         <v>82</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2622764077460668E-3</v>
       </c>
     </row>
@@ -6368,7 +6465,7 @@
         <v>32</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9259567131553828E-4</v>
       </c>
     </row>
@@ -6380,7 +6477,7 @@
         <v>13</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0011699147193745E-4</v>
       </c>
     </row>
@@ -6392,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6404,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6416,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6428,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6440,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6452,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6464,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6476,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6488,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6500,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6512,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6524,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6536,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6548,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6560,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6572,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6584,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6596,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6608,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6620,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6632,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6644,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C97:C100" si="3">B97/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -6656,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6668,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6680,12 +6777,15 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B101">
+      <c r="A101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="1">
         <f>MAX(B1:B100)</f>
         <v>64962</v>
       </c>
@@ -6697,15 +6797,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06385338-E5BB-4EF7-A0F2-F7C6367835DF}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C100"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6716,8 +6819,14 @@
         <f>B1/$B$101</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3.96668304471295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6728,8 +6837,14 @@
         <f t="shared" ref="C2:C65" si="0">B2/$B$101</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2">
+        <v>0.11034983120257499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6740,8 +6855,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.7167858994441598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6752,8 +6873,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="2">
+        <f>(F3-F1)/F2</f>
+        <v>-2.264590190537227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6765,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6777,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6789,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -6801,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6813,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6825,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6837,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6849,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -6861,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -6873,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -6885,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -6938,11 +7066,11 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>23766</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>3.5518101588406089E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6950,11 +7078,11 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>970076</v>
+        <v>128</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.14497710139053532</v>
+        <v>0.10996563573883161</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6962,11 +7090,11 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>4837332</v>
+        <v>629</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.72293549353213671</v>
+        <v>0.5403780068728522</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6974,7 +7102,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>6691236</v>
+        <v>1164</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -6986,11 +7114,11 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0309278350515464E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6998,11 +7126,11 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4364261168384879E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -7908,7 +8036,7 @@
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B101">
         <f>MAX(B1:B100)</f>
-        <v>6691236</v>
+        <v>1164</v>
       </c>
     </row>
   </sheetData>
@@ -7918,18 +8046,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E391F620-A210-4913-BE16-4419CD55F4C8}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C100"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7940,8 +8069,14 @@
         <f>B1/$B$101</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4.5380665323657796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7952,8 +8087,14 @@
         <f t="shared" ref="C2:C65" si="0">B2/$B$101</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2">
+        <v>0.64757616441056298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7964,8 +8105,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.1397137852809296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7976,8 +8123,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="2">
+        <f>(F3-F1)/F2</f>
+        <v>-0.61514423936130946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7989,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8001,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8013,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -8025,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -8037,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -8049,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -8061,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -8073,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -8085,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -8097,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -8109,7 +8263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -8162,11 +8316,11 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>245464</v>
+        <v>1504355</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>4.1932699336375369E-2</v>
+        <v>0.11929931049533851</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8198,11 +8352,11 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>70846</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>1.2102646486592124E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -8210,11 +8364,11 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>818936</v>
+        <v>2091225</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.13989911784919132</v>
+        <v>0.16583964595498688</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -8222,11 +8376,11 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>1304040</v>
+        <v>4276433</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.22276960060378276</v>
+        <v>0.33913239114405308</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -8234,7 +8388,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>5853761</v>
+        <v>12609922</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -8246,11 +8400,11 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>3118084</v>
+        <v>2412014</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.53266335950511134</v>
+        <v>0.1912790578720471</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -8258,11 +8412,11 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1756485</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.3000609351833804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -9132,7 +9286,7 @@
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B101">
         <f>MAX(B1:B100)</f>
-        <v>5853761</v>
+        <v>12609922</v>
       </c>
     </row>
   </sheetData>
@@ -9144,8 +9298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9355080E-892E-4031-92AB-081C8BB144C4}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9566,11 +9720,11 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5518101588406089E-3</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1932699336375369E-2</v>
+        <v>0.11929931049533851</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -9586,7 +9740,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14497710139053532</v>
+        <v>0.10996563573883161</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
@@ -9606,7 +9760,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72293549353213671</v>
+        <v>0.5403780068728522</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
@@ -9630,7 +9784,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2102646486592124E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -9646,11 +9800,11 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.0309278350515464E-2</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13989911784919132</v>
+        <v>0.16583964595498688</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -9666,11 +9820,11 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3.4364261168384879E-3</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22276960060378276</v>
+        <v>0.33913239114405308</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -9710,7 +9864,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53266335950511134</v>
+        <v>0.1912790578720471</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -9730,7 +9884,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3000609351833804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -11177,4 +11331,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0425676F-8C8B-4FAB-8278-E00EB54C5586}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>3.7518307974541401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3.5397574099650302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3.7171366475300802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.7068283992818198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3.7055327143300798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>AVERAGE(A1:A5)</f>
+        <v>3.6842171937122301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>_xlfn.STDEV.P(A1:A5)</f>
+        <v>7.414787523245904E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Histogram.xlsx
+++ b/Histogram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNCW\CSC340\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CAFD8C-D8B7-4F40-AD75-423571D90C6A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB4F29F-68B1-4A54-BA4B-A31FF3B8BECE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" firstSheet="1" activeTab="1" xr2:uid="{A0CE32D8-0D13-4148-8A5D-63EE73A86F1A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{A0CE32D8-0D13-4148-8A5D-63EE73A86F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Exhaustive" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Genetic" sheetId="4" r:id="rId3"/>
     <sheet name="SA" sheetId="5" r:id="rId4"/>
     <sheet name="ALL" sheetId="3" r:id="rId5"/>
-    <sheet name="Draft" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="119">
   <si>
     <t>4.21-4.35</t>
   </si>
@@ -362,17 +361,48 @@
     <t>Max:</t>
   </si>
   <si>
-    <t>Percentile</t>
+    <t>Short random</t>
+  </si>
+  <si>
+    <t>Short genetic</t>
+  </si>
+  <si>
+    <t>Short SA</t>
+  </si>
+  <si>
+    <t>p random</t>
+  </si>
+  <si>
+    <t>p genetic</t>
+  </si>
+  <si>
+    <t>p sa</t>
+  </si>
+  <si>
+    <t>z-score random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z-score genetic </t>
+  </si>
+  <si>
+    <t>z-score SA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -410,12 +440,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +569,7 @@
             <a:noFill/>
             <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:miter lim="800000"/>
             </a:ln>
@@ -1173,6 +1209,654 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ALL!$A$2:$A$101</c:f>
+              <c:strCache>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.86-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1-1.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.14-1.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.28-1.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.42-1.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.56-1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7-1.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.84-1.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.98-2.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.12-2.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.26-2.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4-2.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.54-2.68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.68-2.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.82-2.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.96-3.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1-3.24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.24-3.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.38-3.52</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.52-3.66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.66-3.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8-3.93</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.93-4.07</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.07-4.21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.21-4.35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.35-4.49</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.49-4.63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.63-4.77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.77-4.91</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.91-5.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.05-5.19</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.19-5.33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.33-5.47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.47-5.61</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.61-5.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.75-5.89</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.89-6.03</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.03-6.17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.17-6.31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.31-6.45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.45-6.59</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.59-6.73</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.73-6.87</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.87-7.01</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.01-7.15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.15-7.29</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.29-7.43</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.43-7.57</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.57-7.71</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.71-7.85</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.85-7.99</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.99-8.13</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.13-8.26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.26-8.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.4-8.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.54-8.68</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.68-8.82</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.82-8.96</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.96-9.1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.1-9.24</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.24-9.38</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.38-9.52</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.52-9.66</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.66-9.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.8-9.94</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.94-10.08</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.08-10.22</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.22-10.36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.36-10.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.5-10.64</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.64-10.78</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10.78-10.92</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10.92-11.06</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.06-11.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11.2-11.34</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.34-11.48</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11.48-11.62</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>11.62-11.76</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11.76-11.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11.9-12.04</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12.04-12.18</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12.18-12.32</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12.32-12.46</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12.46-12.6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12.6-12.73</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>12.73-12.87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12.87-13.01</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.01-13.15</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13.15-13.29</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>13.29-13.43</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13.43-13.57</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13.57-13.71</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.71-13.85</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13.85-13.99</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13.99-14.13</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14.13-14.27</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14.27-14.41</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14.41-14.55</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>14.55-14.69</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14.69-14.83</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ALL!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6180844185831714E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0787229457221143E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.6968073643052864E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5393614728610573E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7708506511499033E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.4641482712970659E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1545211046457928E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2936485945629754E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.7252547643237587E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.6038607185739352E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0529232474369632E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7287029340229673E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7600751208398756E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.0993196022289957E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.0604661186539822E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.5465348973245897E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.12251777962501155</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.16561990086512116</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.21992857362765925</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.28341184076844927</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36074936116498874</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43936455158400295</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.5304331763184631</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.62293340722268398</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.71455620208737414</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.80079123179705058</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.8768510821711154</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.93925679628090264</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.98137372617838126</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99010190572950341</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.95796003817616449</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.90163480188417844</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.82177272867214679</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.73193559311597545</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.62953726794125797</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.53137218681690834</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.4314522336134971</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.33341030140697636</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.25213201563991255</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.18044395184877313</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.12615067270096364</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.949262645854499E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.2369077306733167E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.9016963763430929E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.5701487023182782E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.4357008712785935E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.6636803054093162E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2622764077460668E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.9259567131553828E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.0011699147193745E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D954-49A1-8FA6-9752834DC12E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ALL!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1498,654 +2182,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ALL!$C$2:$C$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.6180844185831714E-5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.0787229457221143E-5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.6968073643052864E-5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.5393614728610573E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.7708506511499033E-4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.4641482712970659E-4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.1545211046457928E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.2936485945629754E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.7252547643237587E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.6038607185739352E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.0529232474369632E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.7287029340229673E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.7600751208398756E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.0993196022289957E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.0604661186539822E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.5465348973245897E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.12251777962501155</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.16561990086512116</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.21992857362765925</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.28341184076844927</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.36074936116498874</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.43936455158400295</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.5304331763184631</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.62293340722268398</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.71455620208737414</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.80079123179705058</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.8768510821711154</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.93925679628090264</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.98137372617838126</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.99010190572950341</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.95796003817616449</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.90163480188417844</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.82177272867214679</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.73193559311597545</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.62953726794125797</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.53137218681690834</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.4314522336134971</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.33341030140697636</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.25213201563991255</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.18044395184877313</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.12615067270096364</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>7.949262645854499E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.2369077306733167E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.9016963763430929E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.5701487023182782E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>8.4357008712785935E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.6636803054093162E-3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.2622764077460668E-3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4.9259567131553828E-4</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.0011699147193745E-4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D954-49A1-8FA6-9752834DC12E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ALL!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Genetic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>ALL!$A$2:$A$101</c:f>
-              <c:strCache>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.86-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1-1.14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.14-1.28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.28-1.42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.42-1.56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.56-1.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7-1.84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.84-1.98</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.98-2.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.12-2.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.26-2.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4-2.54</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.54-2.68</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.68-2.82</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.82-2.96</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.96-3.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.1-3.24</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.24-3.38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.38-3.52</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.52-3.66</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.66-3.8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.8-3.93</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.93-4.07</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.07-4.21</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.21-4.35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.35-4.49</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.49-4.63</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.63-4.77</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.77-4.91</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.91-5.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.05-5.19</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.19-5.33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.33-5.47</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.47-5.61</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.61-5.75</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.75-5.89</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.89-6.03</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.03-6.17</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.17-6.31</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.31-6.45</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.45-6.59</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.59-6.73</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.73-6.87</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.87-7.01</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.01-7.15</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.15-7.29</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.29-7.43</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.43-7.57</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.57-7.71</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.71-7.85</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.85-7.99</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7.99-8.13</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8.13-8.26</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.26-8.4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.4-8.54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.54-8.68</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.68-8.82</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.82-8.96</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.96-9.1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9.1-9.24</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9.24-9.38</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9.38-9.52</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9.52-9.66</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9.66-9.8</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>9.8-9.94</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>9.94-10.08</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>10.08-10.22</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10.22-10.36</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10.36-10.5</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>10.5-10.64</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>10.64-10.78</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10.78-10.92</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>10.92-11.06</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>11.06-11.2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>11.2-11.34</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>11.34-11.48</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>11.48-11.62</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>11.62-11.76</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>11.76-11.9</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>11.9-12.04</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>12.04-12.18</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>12.18-12.32</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>12.32-12.46</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>12.46-12.6</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>12.6-12.73</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>12.73-12.87</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>12.87-13.01</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>13.01-13.15</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>13.15-13.29</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>13.29-13.43</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>13.43-13.57</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>13.57-13.71</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>13.71-13.85</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>13.85-13.99</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>13.99-14.13</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>14.13-14.27</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>14.27-14.41</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>14.41-14.55</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>14.55-14.69</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>14.69-14.83</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>ALL!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2477,7 +2513,7 @@
             <a:noFill/>
             <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -3421,10 +3457,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3949,16 +3985,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>327211</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>206188</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>475131</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4285,8 +4321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AEF976-4DC3-4BCD-BFA6-FBC85566A9C9}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4294,8 +4330,10 @@
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.21875" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4324,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C65" si="0">B2/$B$101</f>
+        <f>B2/$B$101</f>
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -4342,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
+        <f>B3/$B$101</f>
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4360,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>B4/$B$101</f>
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -4379,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>B5/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -4391,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>B6/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -4403,8 +4441,14 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B7/$B$101</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.28764330258395</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4415,8 +4459,14 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B8/$B$101</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.7167858994441598</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4427,8 +4477,14 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B9/$B$101</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4.1397137852809296</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4439,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>B10/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -4451,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>B11/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -4463,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>B12/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -4475,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>B13/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -4487,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>B14/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -4499,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>B15/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -4511,11 +4567,11 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <f>B16/$B$101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -4523,11 +4579,18 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <f>B17/$B$101</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17">
+        <f>(F7-F1)/F2</f>
+        <v>-4.7476888354827134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -4535,11 +4598,18 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <f>B18/$B$101</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18">
+        <f>(F8-F1)/F2</f>
+        <v>-5.4236917788263321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -4547,11 +4617,18 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <f>B19/$B$101</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19">
+        <f>(F9-F1)/F2</f>
+        <v>-4.92286531310081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -4559,11 +4636,11 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <f>B20/$B$101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -4571,11 +4648,17 @@
         <v>168</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f>B21/$B$101</f>
         <v>2.9776092715606453E-8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1.057373E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4583,11 +4666,17 @@
         <v>840</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f>B22/$B$101</f>
         <v>1.4888046357803228E-7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="7">
+        <v>3.2223E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -4595,11 +4684,17 @@
         <v>4788</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f>B23/$B$101</f>
         <v>8.4861864239478393E-7</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4.43651E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4607,11 +4702,12 @@
         <v>15484</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f>B24/$B$101</f>
         <v>2.7443632119550614E-6</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4619,11 +4715,11 @@
         <v>46508</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f>B25/$B$101</f>
         <v>8.2430150001037208E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -4631,11 +4727,11 @@
         <v>124712</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f>B26/$B$101</f>
         <v>2.2103786159218523E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -4643,11 +4739,11 @@
         <v>302008</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f>B27/$B$101</f>
         <v>5.3527489338421872E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4655,11 +4751,11 @@
         <v>694204</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f>B28/$B$101</f>
         <v>1.2303977778300513E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -4667,11 +4763,11 @@
         <v>1533308</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f>B29/$B$101</f>
         <v>2.7176143553322085E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -4679,11 +4775,11 @@
         <v>3175340</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f>B30/$B$101</f>
         <v>5.6279296573555836E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -4691,11 +4787,11 @@
         <v>6295828</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f>B31/$B$101</f>
         <v>1.1158640371994712E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -4703,7 +4799,7 @@
         <v>11843328</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f>B32/$B$101</f>
         <v>2.0990954320793927E-3</v>
       </c>
     </row>
@@ -4715,7 +4811,7 @@
         <v>21116900</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f>B33/$B$101</f>
         <v>3.7427307872987497E-3</v>
       </c>
     </row>
@@ -4727,7 +4823,7 @@
         <v>36237460</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f>B34/$B$101</f>
         <v>6.4226783853457156E-3</v>
       </c>
     </row>
@@ -4739,7 +4835,7 @@
         <v>60321464</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f>B35/$B$101</f>
         <v>1.0691294671459029E-2</v>
       </c>
     </row>
@@ -4751,7 +4847,7 @@
         <v>97652800</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f>B36/$B$101</f>
         <v>1.7307850159158179E-2</v>
       </c>
     </row>
@@ -4763,7 +4859,7 @@
         <v>152812100</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f>B37/$B$101</f>
         <v>2.7084209867062649E-2</v>
       </c>
     </row>
@@ -4775,7 +4871,7 @@
         <v>232421392</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f>B38/$B$101</f>
         <v>4.1194053079061384E-2</v>
       </c>
     </row>
@@ -4787,7 +4883,7 @@
         <v>343471660</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f>B39/$B$101</f>
         <v>6.0876452341328907E-2</v>
       </c>
     </row>
@@ -4799,7 +4895,7 @@
         <v>493031392</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f>B40/$B$101</f>
         <v>8.7384216904145898E-2</v>
       </c>
     </row>
@@ -4811,7 +4907,7 @@
         <v>688448880</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f>B41/$B$101</f>
         <v>0.12201974810021085</v>
       </c>
     </row>
@@ -4823,7 +4919,7 @@
         <v>935936568</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f>B42/$B$101</f>
         <v>0.16588413109937206</v>
       </c>
     </row>
@@ -4835,7 +4931,7 @@
         <v>1241249380</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f>B43/$B$101</f>
         <v>0.21999736084564897</v>
       </c>
     </row>
@@ -4847,7 +4943,7 @@
         <v>1604713404</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f>B44/$B$101</f>
         <v>0.28441723273500258</v>
       </c>
     </row>
@@ -4859,7 +4955,7 @@
         <v>2027931332</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f>B45/$B$101</f>
         <v>0.3594278057292577</v>
       </c>
     </row>
@@ -4871,7 +4967,7 @@
         <v>2501458064</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f>B46/$B$101</f>
         <v>0.44335504308253226</v>
       </c>
     </row>
@@ -4883,7 +4979,7 @@
         <v>3012795044</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f>B47/$B$101</f>
         <v>0.53398371763847396</v>
       </c>
     </row>
@@ -4895,7 +4991,7 @@
         <v>3540309640</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f>B48/$B$101</f>
         <v>0.62747969096782918</v>
       </c>
     </row>
@@ -4907,7 +5003,7 @@
         <v>4062694608</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f>B49/$B$101</f>
         <v>0.72006649597025252</v>
       </c>
     </row>
@@ -4919,7 +5015,7 @@
         <v>4550659036</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f>B50/$B$101</f>
         <v>0.80655265103004936</v>
       </c>
     </row>
@@ -4931,7 +5027,7 @@
         <v>4981000248</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f>B51/$B$101</f>
         <v>0.88282574524349255</v>
       </c>
     </row>
@@ -4943,7 +5039,7 @@
         <v>5321220996</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
+        <f>B52/$B$101</f>
         <v>0.94312601034004595</v>
       </c>
     </row>
@@ -4955,7 +5051,7 @@
         <v>5548590796</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
+        <f>B53/$B$101</f>
         <v>0.98342472608724174</v>
       </c>
     </row>
@@ -4967,7 +5063,7 @@
         <v>5642110320</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
+        <f>B54/$B$101</f>
         <v>1</v>
       </c>
     </row>
@@ -4979,7 +5075,7 @@
         <v>5596516380</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
+        <f>B55/$B$101</f>
         <v>0.99191899175767972</v>
       </c>
     </row>
@@ -4991,7 +5087,7 @@
         <v>5413094764</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
+        <f>B56/$B$101</f>
         <v>0.95940959268588</v>
       </c>
     </row>
@@ -5003,7 +5099,7 @@
         <v>5093707976</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
+        <f>B57/$B$101</f>
         <v>0.90280191047381009</v>
       </c>
     </row>
@@ -5015,7 +5111,7 @@
         <v>4663242248</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
+        <f>B58/$B$101</f>
         <v>0.82650674721298256</v>
       </c>
     </row>
@@ -5027,7 +5123,7 @@
         <v>4146969652</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
+        <f>B59/$B$101</f>
         <v>0.73500329075451332</v>
       </c>
     </row>
@@ -5039,7 +5135,7 @@
         <v>3582500516</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
+        <f>B60/$B$101</f>
         <v>0.63495754475073785</v>
       </c>
     </row>
@@ -5051,7 +5147,7 @@
         <v>2995867616</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
+        <f>B61/$B$101</f>
         <v>0.5309835232005885</v>
       </c>
     </row>
@@ -5063,7 +5159,7 @@
         <v>2423497720</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
+        <f>B62/$B$101</f>
         <v>0.42953745718321934</v>
       </c>
     </row>
@@ -5075,7 +5171,7 @@
         <v>1891306676</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
+        <f>B63/$B$101</f>
         <v>0.33521263653703248</v>
       </c>
     </row>
@@ -5087,7 +5183,7 @@
         <v>1422804852</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
+        <f>B64/$B$101</f>
         <v>0.25217600707956378</v>
       </c>
     </row>
@@ -5099,7 +5195,7 @@
         <v>1026758572</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
+        <f>B65/$B$101</f>
         <v>0.18198130021676004</v>
       </c>
     </row>
@@ -5111,7 +5207,7 @@
         <v>708282288</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C100" si="1">B66/$B$101</f>
+        <f>B66/$B$101</f>
         <v>0.12553499450184449</v>
       </c>
     </row>
@@ -5123,7 +5219,7 @@
         <v>464588152</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
+        <f>B67/$B$101</f>
         <v>8.2342975526930137E-2</v>
       </c>
     </row>
@@ -5135,7 +5231,7 @@
         <v>289335536</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f>B68/$B$101</f>
         <v>5.1281438963426719E-2</v>
       </c>
     </row>
@@ -5147,7 +5243,7 @@
         <v>168921284</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f>B69/$B$101</f>
         <v>2.9939379845376722E-2</v>
       </c>
     </row>
@@ -5159,7 +5255,7 @@
         <v>92089928</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f>B70/$B$101</f>
         <v>1.6321894251794779E-2</v>
       </c>
     </row>
@@ -5171,7 +5267,7 @@
         <v>46089120</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f>B71/$B$101</f>
         <v>8.1687732755994745E-3</v>
       </c>
     </row>
@@ -5183,7 +5279,7 @@
         <v>20836452</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f>B72/$B$101</f>
         <v>3.693024563192164E-3</v>
       </c>
     </row>
@@ -5195,7 +5291,7 @@
         <v>8131788</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <f>B73/$B$101</f>
         <v>1.441267103759857E-3</v>
       </c>
     </row>
@@ -5207,7 +5303,7 @@
         <v>2737616</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <f>B74/$B$101</f>
         <v>4.8521135616504568E-4</v>
       </c>
     </row>
@@ -5219,7 +5315,7 @@
         <v>724584</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
+        <f>B75/$B$101</f>
         <v>1.2842428788241065E-4</v>
       </c>
     </row>
@@ -5231,7 +5327,7 @@
         <v>66528</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
+        <f>B76/$B$101</f>
         <v>1.1791332715380155E-5</v>
       </c>
     </row>
@@ -5243,7 +5339,7 @@
         <v>952</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
+        <f>B77/$B$101</f>
         <v>1.6873119205510324E-7</v>
       </c>
     </row>
@@ -5255,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
+        <f>B78/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5267,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
+        <f>B79/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5279,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
+        <f>B80/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5291,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
+        <f>B81/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5303,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
+        <f>B82/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5315,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
+        <f>B83/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5327,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
+        <f>B84/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5339,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
+        <f>B85/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5351,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
+        <f>B86/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5363,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
+        <f>B87/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5375,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
+        <f>B88/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5387,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
+        <f>B89/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5399,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
+        <f>B90/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5411,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
+        <f>B91/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5423,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <f t="shared" si="1"/>
+        <f>B92/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5435,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <f t="shared" si="1"/>
+        <f>B93/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5447,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <f t="shared" si="1"/>
+        <f>B94/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5459,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <f t="shared" si="1"/>
+        <f>B95/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5471,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <f t="shared" si="1"/>
+        <f>B96/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5483,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
+        <f>B97/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5495,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <f t="shared" si="1"/>
+        <f>B98/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5507,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
+        <f>B99/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5519,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
+        <f>B100/$B$101</f>
         <v>0</v>
       </c>
     </row>
@@ -5539,14 +5635,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4193ABA6-1091-4846-906A-78573430AF46}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5657,13 +5754,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7">
-        <f>(25/100)*100</f>
-        <v>25</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -5688,6 +5778,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E9">
+        <f>SUM(Exhaustive!B1:B24)</f>
+        <v>21280</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -5700,6 +5794,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E10">
+        <f>SUM(Exhaustive!B1:B100)</f>
+        <v>87178291200</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -5711,6 +5809,10 @@
       <c r="C11">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="E11">
+        <f>E9/E10</f>
+        <v>2.4409746631968854E-7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6800,7 +6902,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6928,6 +7030,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E8">
+        <f>SUM(Exhaustive!B1:B21)</f>
+        <v>168</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -6940,6 +7046,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E9">
+        <f>SUM(Exhaustive!B1:B100)</f>
+        <v>87178291200</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -6951,6 +7061,10 @@
       <c r="C10">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="E10">
+        <f>E8/E9</f>
+        <v>1.9270852604185937E-9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -8049,7 +8163,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9298,8 +9412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9355080E-892E-4031-92AB-081C8BB144C4}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E101"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11331,62 +11445,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0425676F-8C8B-4FAB-8278-E00EB54C5586}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>3.7518307974541401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>3.5397574099650302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3.7171366475300802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3.7068283992818198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3.7055327143300798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f>AVERAGE(A1:A5)</f>
-        <v>3.6842171937122301</v>
-      </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f>_xlfn.STDEV.P(A1:A5)</f>
-        <v>7.414787523245904E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>